--- a/data/trans_orig/P1404-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1404-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>14358</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8220</v>
+        <v>8496</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22007</v>
+        <v>22294</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05259073291946403</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03010809354108702</v>
+        <v>0.03111863127402866</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08060887714360716</v>
+        <v>0.08165831315155805</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -765,19 +765,19 @@
         <v>25474</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17718</v>
+        <v>17083</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>37351</v>
+        <v>36009</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09766131507656224</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06792895535206703</v>
+        <v>0.06549134389073918</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1431969750133645</v>
+        <v>0.1380500603577771</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>42</v>
@@ -786,19 +786,19 @@
         <v>39832</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>28585</v>
+        <v>28835</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>52691</v>
+        <v>52700</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07461221456143817</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05354490691921143</v>
+        <v>0.05401416769033422</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09870063363680798</v>
+        <v>0.09871642298330084</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>258652</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>251003</v>
+        <v>250716</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>264790</v>
+        <v>264514</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.947409267080536</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9193911228563928</v>
+        <v>0.918341686848442</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.969891906458913</v>
+        <v>0.9688813687259711</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>220</v>
@@ -836,19 +836,19 @@
         <v>235364</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>223487</v>
+        <v>224829</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>243120</v>
+        <v>243755</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9023386849234377</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8568030249866364</v>
+        <v>0.8619499396422233</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9320710446479331</v>
+        <v>0.9345086561092609</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>474</v>
@@ -857,19 +857,19 @@
         <v>494016</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>481157</v>
+        <v>481148</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>505263</v>
+        <v>505013</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9253877854385618</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.901299366363192</v>
+        <v>0.9012835770166983</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9464550930807886</v>
+        <v>0.9459858323096656</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>37464</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>27581</v>
+        <v>27789</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>51648</v>
+        <v>50735</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0759806894569262</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05593631960092482</v>
+        <v>0.05635768684481007</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1047470209705058</v>
+        <v>0.1028946100675883</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>51</v>
@@ -982,19 +982,19 @@
         <v>51582</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>40544</v>
+        <v>39344</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>67124</v>
+        <v>66323</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1023549103116433</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08045347730090342</v>
+        <v>0.07807145070632854</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1331963230778411</v>
+        <v>0.1316067054014687</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>87</v>
@@ -1003,19 +1003,19 @@
         <v>89046</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>72795</v>
+        <v>71672</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>107213</v>
+        <v>106461</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08931162386420424</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07301183597923798</v>
+        <v>0.07188565736929133</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1075329862369611</v>
+        <v>0.1067784284002175</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>455611</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>441427</v>
+        <v>442340</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>465494</v>
+        <v>465286</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9240193105430738</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8952529790294941</v>
+        <v>0.8971053899324117</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9440636803990752</v>
+        <v>0.94364231315519</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>448</v>
@@ -1053,19 +1053,19 @@
         <v>452367</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>436825</v>
+        <v>437626</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>463405</v>
+        <v>464605</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8976450896883567</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8668036769221588</v>
+        <v>0.8683932945985313</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9195465226990965</v>
+        <v>0.9219285492936715</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>877</v>
@@ -1074,19 +1074,19 @@
         <v>907978</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>889811</v>
+        <v>890563</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>924229</v>
+        <v>925352</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9106883761357958</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8924670137630389</v>
+        <v>0.8932215715997824</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.926988164020762</v>
+        <v>0.9281143426307087</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>25934</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17605</v>
+        <v>17369</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>36510</v>
+        <v>35964</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08133561124283391</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05521487100769571</v>
+        <v>0.05447558659814072</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1145051300155391</v>
+        <v>0.1127958247039935</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -1199,19 +1199,19 @@
         <v>27840</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19246</v>
+        <v>18444</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>39947</v>
+        <v>38545</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08300246766282031</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05738076666897874</v>
+        <v>0.05498832182936039</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1190985807405609</v>
+        <v>0.1149173419518921</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>54</v>
@@ -1220,19 +1220,19 @@
         <v>53774</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>40769</v>
+        <v>40049</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>69491</v>
+        <v>66748</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08219014221183132</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06231297431167062</v>
+        <v>0.06121329590249346</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1062127500646636</v>
+        <v>0.1020206727357434</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>292912</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>282336</v>
+        <v>282882</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>301241</v>
+        <v>301477</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9186643887571661</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.885494869984461</v>
+        <v>0.8872041752960065</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9447851289923044</v>
+        <v>0.9455244134018592</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>308</v>
@@ -1270,19 +1270,19 @@
         <v>307572</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>295465</v>
+        <v>296867</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>316166</v>
+        <v>316968</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9169975323371797</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8809014192594391</v>
+        <v>0.8850826580481078</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9426192333310213</v>
+        <v>0.9450116781706396</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>591</v>
@@ -1291,19 +1291,19 @@
         <v>600484</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>584767</v>
+        <v>587510</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>613489</v>
+        <v>614209</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9178098577881687</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.893787249935336</v>
+        <v>0.8979793272642564</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9376870256883281</v>
+        <v>0.9387867040975062</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>23489</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15173</v>
+        <v>15222</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>33201</v>
+        <v>32686</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06548950633465701</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04230312662347824</v>
+        <v>0.04243932141558283</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09256599646862509</v>
+        <v>0.09112953788678761</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>23</v>
@@ -1416,19 +1416,19 @@
         <v>22268</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15048</v>
+        <v>14677</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>32475</v>
+        <v>32951</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05994725461875729</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0405101338102892</v>
+        <v>0.03951208153510519</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08742593582486806</v>
+        <v>0.08870816922853679</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>48</v>
@@ -1437,19 +1437,19 @@
         <v>45757</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>33830</v>
+        <v>34589</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>60093</v>
+        <v>57792</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06266985681835846</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04633484323618621</v>
+        <v>0.0473732844300311</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08230435064906087</v>
+        <v>0.07915267294276983</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>335182</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>325470</v>
+        <v>325985</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>343498</v>
+        <v>343449</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.934510493665343</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9074340035313749</v>
+        <v>0.9088704621132124</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9576968733765218</v>
+        <v>0.9575606785844172</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>361</v>
@@ -1487,19 +1487,19 @@
         <v>349188</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>338981</v>
+        <v>338505</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>356408</v>
+        <v>356779</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9400527453812427</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.912574064175132</v>
+        <v>0.9112918307714633</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9594898661897108</v>
+        <v>0.9604879184648948</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>698</v>
@@ -1508,19 +1508,19 @@
         <v>684370</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>670034</v>
+        <v>672335</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>696297</v>
+        <v>695538</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9373301431816415</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9176956493509392</v>
+        <v>0.9208473270572299</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9536651567638139</v>
+        <v>0.9526267155699689</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>22969</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14956</v>
+        <v>15334</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>33092</v>
+        <v>34863</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1129761088526377</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07356206851029462</v>
+        <v>0.07542334776123076</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1627670917081304</v>
+        <v>0.1714811787159926</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>20</v>
@@ -1633,19 +1633,19 @@
         <v>21291</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12845</v>
+        <v>13524</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>31432</v>
+        <v>31283</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1025260141118624</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06185571778205096</v>
+        <v>0.06512208488180739</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1513560425914328</v>
+        <v>0.1506400648459066</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>43</v>
@@ -1654,19 +1654,19 @@
         <v>44260</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>33074</v>
+        <v>32360</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>60035</v>
+        <v>58960</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1076956301099937</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08047635367151332</v>
+        <v>0.07874041011420124</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1460786597121589</v>
+        <v>0.1434633587725841</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>180339</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>170216</v>
+        <v>168445</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>188352</v>
+        <v>187974</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8870238911473622</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8372329082918698</v>
+        <v>0.8285188212840073</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9264379314897054</v>
+        <v>0.9245766522387693</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>178</v>
@@ -1704,19 +1704,19 @@
         <v>186377</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>176236</v>
+        <v>176385</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>194823</v>
+        <v>194144</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8974739858881376</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8486439574085674</v>
+        <v>0.8493599351540935</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9381442822179491</v>
+        <v>0.9348779151181926</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>361</v>
@@ -1725,19 +1725,19 @@
         <v>366716</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>350941</v>
+        <v>352016</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>377902</v>
+        <v>378616</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8923043698900063</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8539213402878412</v>
+        <v>0.8565366412274159</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9195236463284867</v>
+        <v>0.9212595898857987</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>15514</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9458</v>
+        <v>9737</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>24045</v>
+        <v>24616</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05728759268591038</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03492363067251048</v>
+        <v>0.03595582271789617</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08879054556084366</v>
+        <v>0.0908982344041276</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>36</v>
@@ -1850,19 +1850,19 @@
         <v>37337</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>27437</v>
+        <v>26849</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>49338</v>
+        <v>50621</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1342345047155675</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09864407613674128</v>
+        <v>0.09652968807058095</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1773825610056317</v>
+        <v>0.181994915792558</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>52</v>
@@ -1871,19 +1871,19 @@
         <v>52851</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>39886</v>
+        <v>40657</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>67878</v>
+        <v>68891</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09627498098499494</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07265875221621954</v>
+        <v>0.07406235773562792</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1236486642910178</v>
+        <v>0.1254942082638504</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>255297</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>246766</v>
+        <v>246195</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>261353</v>
+        <v>261074</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9427124073140897</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9112094544391561</v>
+        <v>0.9091017655958726</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9650763693274895</v>
+        <v>0.9640441772821038</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>234</v>
@@ -1921,19 +1921,19 @@
         <v>240807</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>228806</v>
+        <v>227523</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>250707</v>
+        <v>251295</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8657654952844325</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8226174389943683</v>
+        <v>0.8180050842074414</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9013559238632588</v>
+        <v>0.903470311929419</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>484</v>
@@ -1942,19 +1942,19 @@
         <v>496104</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>481077</v>
+        <v>480064</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>509069</v>
+        <v>508298</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.903725019015005</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8763513357089822</v>
+        <v>0.8745057917361494</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9273412477837804</v>
+        <v>0.925937642264372</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>39830</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>29476</v>
+        <v>28902</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>53354</v>
+        <v>52627</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06476115034566171</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0479259857769052</v>
+        <v>0.04699262808662456</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08675146587001546</v>
+        <v>0.08556814349067839</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>68</v>
@@ -2067,19 +2067,19 @@
         <v>69984</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>56020</v>
+        <v>55807</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>87403</v>
+        <v>86449</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1096553324469999</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08777534519171674</v>
+        <v>0.08744223224394636</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.136948780786067</v>
+        <v>0.1354535674161889</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>110</v>
@@ -2088,19 +2088,19 @@
         <v>109814</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>90765</v>
+        <v>90020</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>131868</v>
+        <v>131682</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08762363764850477</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07242406181630191</v>
+        <v>0.0718297598956965</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1052211050561759</v>
+        <v>0.1050725288364434</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>575197</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>561673</v>
+        <v>562400</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>585551</v>
+        <v>586125</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9352388496543382</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9132485341299844</v>
+        <v>0.9144318565093216</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9520740142230946</v>
+        <v>0.9530073719133754</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>553</v>
@@ -2138,19 +2138,19 @@
         <v>568235</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>550816</v>
+        <v>551770</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>582199</v>
+        <v>582412</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8903446675530001</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.863051219213933</v>
+        <v>0.8645464325838111</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9122246548082827</v>
+        <v>0.9125577677560537</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1109</v>
@@ -2159,19 +2159,19 @@
         <v>1143432</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1121378</v>
+        <v>1121564</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1162481</v>
+        <v>1163226</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9123763623514952</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.894778894943824</v>
+        <v>0.8949274711635566</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9275759381836981</v>
+        <v>0.9281702401043035</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>80154</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>64013</v>
+        <v>64868</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>98195</v>
+        <v>98646</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1077635959028692</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08606252351015839</v>
+        <v>0.08721264613623653</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1320187616789179</v>
+        <v>0.1326252231183495</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>85</v>
@@ -2284,19 +2284,19 @@
         <v>92406</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>74902</v>
+        <v>75000</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>112760</v>
+        <v>110833</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1179384101120889</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09559786605798846</v>
+        <v>0.09572314974662148</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1439159040073686</v>
+        <v>0.1414563445438351</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>166</v>
@@ -2305,19 +2305,19 @@
         <v>172560</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>149326</v>
+        <v>145995</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>198467</v>
+        <v>199163</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1129832955815162</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09777088717320093</v>
+        <v>0.09558969886883963</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.12994598605366</v>
+        <v>0.1304012066802588</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>663641</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>645600</v>
+        <v>645149</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>679782</v>
+        <v>678927</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8922364040971308</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8679812383210823</v>
+        <v>0.8673747768816507</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9139374764898417</v>
+        <v>0.9127873538637638</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>660</v>
@@ -2355,19 +2355,19 @@
         <v>691105</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>670751</v>
+        <v>672678</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>708609</v>
+        <v>708511</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8820615898879111</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8560840959926315</v>
+        <v>0.8585436554561648</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9044021339420115</v>
+        <v>0.9042768502533787</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1315</v>
@@ -2376,19 +2376,19 @@
         <v>1354746</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1328839</v>
+        <v>1328143</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1377980</v>
+        <v>1381311</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8870167044184838</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8700540139463406</v>
+        <v>0.869598793319741</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9022291128267994</v>
+        <v>0.9044103011311603</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>259712</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>231329</v>
+        <v>230412</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>290698</v>
+        <v>290374</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.07926391656377424</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07060155006710656</v>
+        <v>0.0703215665348931</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08872081548127093</v>
+        <v>0.08862195580850631</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>335</v>
@@ -2501,19 +2501,19 @@
         <v>348181</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>318811</v>
+        <v>312999</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>387057</v>
+        <v>388214</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1030366913449996</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.09434520588601045</v>
+        <v>0.09262512494237973</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1145409934477128</v>
+        <v>0.1148835484861753</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>602</v>
@@ -2522,19 +2522,19 @@
         <v>607893</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>561667</v>
+        <v>558746</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>657803</v>
+        <v>653089</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.09133363217087917</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.08438834873613438</v>
+        <v>0.0839494883795797</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09883244104123255</v>
+        <v>0.09812422392078991</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>3016831</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2985845</v>
+        <v>2986169</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3045214</v>
+        <v>3046131</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9207360834362258</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9112791845187294</v>
+        <v>0.9113780441914937</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9293984499328934</v>
+        <v>0.9296784334651069</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2962</v>
@@ -2572,19 +2572,19 @@
         <v>3031016</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2992140</v>
+        <v>2990983</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3060386</v>
+        <v>3066198</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8969633086550004</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8854590065522873</v>
+        <v>0.8851164515138248</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9056547941139895</v>
+        <v>0.9073748750576203</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5909</v>
@@ -2593,19 +2593,19 @@
         <v>6047848</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5997938</v>
+        <v>6002652</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6094074</v>
+        <v>6096995</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9086663678291208</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9011675589587674</v>
+        <v>0.9018757760792101</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9156116512638657</v>
+        <v>0.9160505116204203</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>28638</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19641</v>
+        <v>19566</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>41230</v>
+        <v>42596</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09716390851893054</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06663999072120153</v>
+        <v>0.06638527572563474</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1398862732732281</v>
+        <v>0.1445203195703887</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>32</v>
@@ -2962,19 +2962,19 @@
         <v>36001</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>24609</v>
+        <v>24996</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>49932</v>
+        <v>49711</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1253326419473448</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08567197990621375</v>
+        <v>0.08701990522567606</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.17383040955454</v>
+        <v>0.1730598768481714</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>58</v>
@@ -2983,19 +2983,19 @@
         <v>64639</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>49504</v>
+        <v>48608</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>83895</v>
+        <v>81518</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1110669390370929</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08506084591844544</v>
+        <v>0.08352189020708801</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1441532268951869</v>
+        <v>0.1400687625824781</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>266100</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>253508</v>
+        <v>252142</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>275097</v>
+        <v>275172</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9028360914810695</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.860113726726772</v>
+        <v>0.8554796804296116</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9333600092787986</v>
+        <v>0.9336147242743654</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>224</v>
@@ -3033,19 +3033,19 @@
         <v>251244</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>237313</v>
+        <v>237534</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>262636</v>
+        <v>262249</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8746673580526552</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8261695904454599</v>
+        <v>0.8269401231518284</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9143280200937862</v>
+        <v>0.9129800947743238</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>480</v>
@@ -3054,19 +3054,19 @@
         <v>517344</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>498088</v>
+        <v>500465</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>532479</v>
+        <v>533375</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8889330609629071</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8558467731048131</v>
+        <v>0.8599312374175211</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9149391540815544</v>
+        <v>0.9164781097929114</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>66698</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>51442</v>
+        <v>50701</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>84201</v>
+        <v>86682</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.132306412294547</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1020431538309577</v>
+        <v>0.1005736947787265</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.167026011894447</v>
+        <v>0.1719481142593501</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>74</v>
@@ -3179,19 +3179,19 @@
         <v>82128</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>65179</v>
+        <v>66259</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>100676</v>
+        <v>101770</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1568030640783679</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1244439212814057</v>
+        <v>0.1265045291978676</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1922153705499243</v>
+        <v>0.1943045525377086</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>130</v>
@@ -3200,19 +3200,19 @@
         <v>148826</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>125287</v>
+        <v>125897</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>175323</v>
+        <v>174684</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1447888435469412</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1218885211628381</v>
+        <v>0.1224815687762545</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1705667380680162</v>
+        <v>0.1699448102616944</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>437421</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>419918</v>
+        <v>417437</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>452677</v>
+        <v>453418</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8676935877054529</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8329739881055529</v>
+        <v>0.8280518857406507</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8979568461690421</v>
+        <v>0.8994263052212735</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>406</v>
@@ -3250,19 +3250,19 @@
         <v>441637</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>423089</v>
+        <v>421995</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>458586</v>
+        <v>457506</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.843196935921632</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8077846294500757</v>
+        <v>0.8056954474622914</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8755560787185943</v>
+        <v>0.8734954708021324</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>821</v>
@@ -3271,19 +3271,19 @@
         <v>879058</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>852561</v>
+        <v>853200</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>902597</v>
+        <v>901987</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8552111564530588</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8294332619319835</v>
+        <v>0.8300551897383056</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8781114788371617</v>
+        <v>0.8775184312237455</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>34636</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>24634</v>
+        <v>24215</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>47203</v>
+        <v>47592</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.106884998208817</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07602048852373072</v>
+        <v>0.07472638753299544</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1456683664905414</v>
+        <v>0.1468674861406017</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>41</v>
@@ -3396,19 +3396,19 @@
         <v>44842</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>32684</v>
+        <v>32604</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>59597</v>
+        <v>57953</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1314933287007279</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09584174021408781</v>
+        <v>0.09560603469334673</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1747613794587899</v>
+        <v>0.1699393389064124</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>74</v>
@@ -3417,19 +3417,19 @@
         <v>79478</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>63019</v>
+        <v>63356</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>96646</v>
+        <v>98887</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1195031939252848</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09475651312249761</v>
+        <v>0.09526207047313981</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1453173815232957</v>
+        <v>0.1486868960373239</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>289410</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>276843</v>
+        <v>276454</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>299412</v>
+        <v>299831</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.893115001791183</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8543316335094601</v>
+        <v>0.8531325138593985</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9239795114762693</v>
+        <v>0.9252736124670046</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>276</v>
@@ -3467,19 +3467,19 @@
         <v>296178</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>281423</v>
+        <v>283067</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>308336</v>
+        <v>308416</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8685066712992721</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8252386205412106</v>
+        <v>0.8300606610935876</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9041582597859122</v>
+        <v>0.9043939653066527</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>562</v>
@@ -3488,19 +3488,19 @@
         <v>585588</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>568420</v>
+        <v>566179</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>602047</v>
+        <v>601710</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8804968060747151</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8546826184767045</v>
+        <v>0.851313103962676</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9052434868775027</v>
+        <v>0.9047379295268602</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>44292</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>31993</v>
+        <v>32865</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>58749</v>
+        <v>58898</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1184329379923392</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08554816605550558</v>
+        <v>0.08787788441767051</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.15709106307303</v>
+        <v>0.1574882248373639</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>61</v>
@@ -3613,19 +3613,19 @@
         <v>61931</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>49052</v>
+        <v>48781</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>77546</v>
+        <v>77964</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1592269395042988</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1261126832660681</v>
+        <v>0.1254176382073538</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1993734124384468</v>
+        <v>0.2004462207233851</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>100</v>
@@ -3634,19 +3634,19 @@
         <v>106223</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>86937</v>
+        <v>89793</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>128928</v>
+        <v>127998</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1392301314676508</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.113950438712785</v>
+        <v>0.1176951000883097</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1689893954992424</v>
+        <v>0.1677706901033333</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>329690</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>315233</v>
+        <v>315084</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>341989</v>
+        <v>341117</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8815670620076608</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.84290893692697</v>
+        <v>0.8425117751626361</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9144518339444945</v>
+        <v>0.9121221155823295</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>310</v>
@@ -3684,19 +3684,19 @@
         <v>327020</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>311405</v>
+        <v>310987</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>339899</v>
+        <v>340170</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8407730604957012</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8006265875615532</v>
+        <v>0.7995537792766149</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8738873167339314</v>
+        <v>0.8745823617926463</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>615</v>
@@ -3705,19 +3705,19 @@
         <v>656710</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>634005</v>
+        <v>634935</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>675996</v>
+        <v>673140</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8607698685323492</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8310106045007576</v>
+        <v>0.8322293098966668</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.886049561287215</v>
+        <v>0.8823048999116903</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>34993</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>24552</v>
+        <v>25175</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>47337</v>
+        <v>45781</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1645806331276077</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1154735615269428</v>
+        <v>0.1184057565975477</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2226370067122905</v>
+        <v>0.215318325555611</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>46</v>
@@ -3830,19 +3830,19 @@
         <v>48270</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>37080</v>
+        <v>37387</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>60734</v>
+        <v>61720</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.219816760987697</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.168857857888368</v>
+        <v>0.1702582221718024</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2765777468932176</v>
+        <v>0.2810701968941232</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>78</v>
@@ -3851,19 +3851,19 @@
         <v>83263</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>69745</v>
+        <v>67697</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>100881</v>
+        <v>99325</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1926442677307261</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1613688444251721</v>
+        <v>0.1566296189561326</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2334069526443</v>
+        <v>0.2298085875768286</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>177625</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>165281</v>
+        <v>166837</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>188066</v>
+        <v>187443</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8354193668723923</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7773629932877094</v>
+        <v>0.784681674444389</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8845264384730572</v>
+        <v>0.8815942434024523</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>166</v>
@@ -3901,19 +3901,19 @@
         <v>171321</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>158857</v>
+        <v>157871</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>182511</v>
+        <v>182204</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.780183239012303</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7234222531067824</v>
+        <v>0.7189298031058768</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8311421421116321</v>
+        <v>0.8297417778281975</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>330</v>
@@ -3922,19 +3922,19 @@
         <v>348946</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>331328</v>
+        <v>332884</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>362464</v>
+        <v>364512</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8073557322692739</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7665930473557001</v>
+        <v>0.7701914124231711</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8386311555748281</v>
+        <v>0.8433703810438664</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>38145</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>27153</v>
+        <v>27703</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>50776</v>
+        <v>52427</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1392232184863789</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09910598539419301</v>
+        <v>0.1011117471228155</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1853276925720829</v>
+        <v>0.1913513954145457</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>42</v>
@@ -4047,19 +4047,19 @@
         <v>43540</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>31834</v>
+        <v>32427</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>56980</v>
+        <v>56808</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1565661249958346</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1144697126536715</v>
+        <v>0.1166028028759348</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2048927699703162</v>
+        <v>0.2042765410038672</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>79</v>
@@ -4068,19 +4068,19 @@
         <v>81685</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>65194</v>
+        <v>65489</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>99819</v>
+        <v>100298</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1479593019295637</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1180892191556024</v>
+        <v>0.1186234213220651</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.180806214055963</v>
+        <v>0.1816732614342265</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>235836</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>223205</v>
+        <v>221554</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>246828</v>
+        <v>246278</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.860776781513621</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8146723074279171</v>
+        <v>0.8086486045854542</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.900894014605807</v>
+        <v>0.8988882528771844</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>226</v>
@@ -4118,19 +4118,19 @@
         <v>234556</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>221116</v>
+        <v>221288</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>246262</v>
+        <v>245669</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8434338750041654</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7951072300296832</v>
+        <v>0.7957234589961331</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8855302873463284</v>
+        <v>0.8833971971240653</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>450</v>
@@ -4139,19 +4139,19 @@
         <v>470392</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>452258</v>
+        <v>451779</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>486883</v>
+        <v>486588</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8520406980704364</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.819193785944037</v>
+        <v>0.8183267385657734</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8819107808443976</v>
+        <v>0.8813765786779348</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>74567</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>58629</v>
+        <v>58754</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>93310</v>
+        <v>92634</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.112505366996968</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08845761794113467</v>
+        <v>0.08864735363711236</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1407843076789178</v>
+        <v>0.1397634175094025</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>69</v>
@@ -4264,19 +4264,19 @@
         <v>79318</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>61668</v>
+        <v>62459</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>98220</v>
+        <v>99260</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1143156270894021</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08887822267448768</v>
+        <v>0.09001755918845565</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1415569150466723</v>
+        <v>0.1430560187426057</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>136</v>
@@ -4285,19 +4285,19 @@
         <v>153885</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>130622</v>
+        <v>131366</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>178892</v>
+        <v>182646</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1134312230883608</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09628339050256331</v>
+        <v>0.09683180759726534</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1318636032185177</v>
+        <v>0.1346311799937682</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>588221</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>569478</v>
+        <v>570154</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>604159</v>
+        <v>604034</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.887494633003032</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8592156923210822</v>
+        <v>0.8602365824905978</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9115423820588653</v>
+        <v>0.9113526463628882</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>567</v>
@@ -4335,19 +4335,19 @@
         <v>614535</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>595633</v>
+        <v>594593</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>632185</v>
+        <v>631394</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8856843729105979</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8584430849533278</v>
+        <v>0.8569439812573945</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9111217773255124</v>
+        <v>0.9099824408115444</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1118</v>
@@ -4356,19 +4356,19 @@
         <v>1202756</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1177749</v>
+        <v>1173995</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1226019</v>
+        <v>1225275</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8865687769116392</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8681363967814824</v>
+        <v>0.8653688200062318</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9037166094974366</v>
+        <v>0.9031681924027347</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>66706</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>51280</v>
+        <v>52531</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>83453</v>
+        <v>85713</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08561901272551796</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06581940552503185</v>
+        <v>0.06742581427095053</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1071149194584099</v>
+        <v>0.1100152204192308</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>87</v>
@@ -4481,19 +4481,19 @@
         <v>94809</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>77675</v>
+        <v>78848</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>114575</v>
+        <v>116216</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1152584710839959</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09442900380094832</v>
+        <v>0.09585440899691473</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1392872392376451</v>
+        <v>0.1412823522775808</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>147</v>
@@ -4502,19 +4502,19 @@
         <v>161515</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>137725</v>
+        <v>136737</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>187980</v>
+        <v>186773</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1008410404931512</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08598789818591589</v>
+        <v>0.08537114439302984</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1173648676878654</v>
+        <v>0.1166108453604353</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>712392</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>695645</v>
+        <v>693385</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>727818</v>
+        <v>726567</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.914380987274482</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8928850805415901</v>
+        <v>0.8899847795807692</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9341805944749682</v>
+        <v>0.9325741857290494</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>669</v>
@@ -4552,19 +4552,19 @@
         <v>727769</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>708003</v>
+        <v>706362</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>744903</v>
+        <v>743730</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8847415289160041</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8607127607623549</v>
+        <v>0.8587176477224192</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9055709961990518</v>
+        <v>0.9041455910030853</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1326</v>
@@ -4573,19 +4573,19 @@
         <v>1440161</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1413696</v>
+        <v>1414903</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1463951</v>
+        <v>1464939</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8991589595068489</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8826351323121345</v>
+        <v>0.8833891546395647</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9140121018140841</v>
+        <v>0.9146288556069702</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>388674</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>350128</v>
+        <v>345912</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>426159</v>
+        <v>428364</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.113469095839011</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1022162136139512</v>
+        <v>0.1009853672908541</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1244125020809493</v>
+        <v>0.1250561437335867</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>452</v>
@@ -4698,19 +4698,19 @@
         <v>490840</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>448505</v>
+        <v>447926</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>533924</v>
+        <v>534933</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1380664750746221</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1261581695710918</v>
+        <v>0.1259953971791458</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1501855654183326</v>
+        <v>0.150469353745182</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>802</v>
@@ -4719,19 +4719,19 @@
         <v>879514</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>823921</v>
+        <v>822922</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>936670</v>
+        <v>939084</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1259963495977691</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1180323804693487</v>
+        <v>0.1178892608414724</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1341844448591491</v>
+        <v>0.1345302423381009</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>3036696</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2999211</v>
+        <v>2997006</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3075242</v>
+        <v>3079458</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.886530904160989</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8755874979190506</v>
+        <v>0.8749438562664131</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8977837863860487</v>
+        <v>0.8990146327091459</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2844</v>
@@ -4769,19 +4769,19 @@
         <v>3064258</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3021174</v>
+        <v>3020165</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3106593</v>
+        <v>3107172</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.861933524925378</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8498144345816672</v>
+        <v>0.8495306462548177</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.873841830428908</v>
+        <v>0.8740046028208542</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5702</v>
@@ -4790,19 +4790,19 @@
         <v>6100955</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6043799</v>
+        <v>6041385</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6156548</v>
+        <v>6157547</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8740036504022309</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.865815555140851</v>
+        <v>0.8654697576618992</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8819676195306514</v>
+        <v>0.8821107391585277</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>37306</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26174</v>
+        <v>27805</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>51055</v>
+        <v>51666</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1269933591084097</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08910013694270344</v>
+        <v>0.09465123001711954</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1737993827912494</v>
+        <v>0.1758785666708312</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>36</v>
@@ -5159,19 +5159,19 @@
         <v>39652</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>28676</v>
+        <v>28631</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>52948</v>
+        <v>53532</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1373464117309381</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09932663315246786</v>
+        <v>0.0991716664795223</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1833994405034586</v>
+        <v>0.1854217248193168</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>70</v>
@@ -5180,19 +5180,19 @@
         <v>76958</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>61959</v>
+        <v>58534</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>95456</v>
+        <v>93694</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1321249334997378</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1063747416794742</v>
+        <v>0.100493290711016</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.163882952588419</v>
+        <v>0.1608572115927585</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>256455</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>242706</v>
+        <v>242095</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>267587</v>
+        <v>265956</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8730066408915903</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8262006172087505</v>
+        <v>0.8241214333291683</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9108998630572964</v>
+        <v>0.9053487699828798</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>241</v>
@@ -5230,19 +5230,19 @@
         <v>249051</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>235755</v>
+        <v>235171</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>260027</v>
+        <v>260072</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8626535882690619</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8166005594965412</v>
+        <v>0.8145782751806833</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9006733668475322</v>
+        <v>0.9008283335204776</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>473</v>
@@ -5251,19 +5251,19 @@
         <v>505506</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>487008</v>
+        <v>488770</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>520505</v>
+        <v>523930</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8678750665002622</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.836117047411581</v>
+        <v>0.8391427884072414</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8936252583205259</v>
+        <v>0.899506709288984</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>57668</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>44693</v>
+        <v>44858</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>73758</v>
+        <v>72922</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1147442398387905</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08892867139162426</v>
+        <v>0.08925635713521436</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.146759228645684</v>
+        <v>0.1450958614833622</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>64</v>
@@ -5376,19 +5376,19 @@
         <v>74067</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>59371</v>
+        <v>58798</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>91088</v>
+        <v>90724</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1415962930314558</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1135025317101366</v>
+        <v>0.1124059686419464</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1741361835522294</v>
+        <v>0.1734410000074361</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>121</v>
@@ -5397,19 +5397,19 @@
         <v>131734</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>112084</v>
+        <v>110672</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>154913</v>
+        <v>154692</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1284387274229926</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.109280139841223</v>
+        <v>0.1079029484590653</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1510377722704228</v>
+        <v>0.1508219877069589</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>444907</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>428817</v>
+        <v>429653</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>457882</v>
+        <v>457717</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8852557601612094</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8532407713543169</v>
+        <v>0.8549041385166378</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9110713286083758</v>
+        <v>0.9107436428647858</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>420</v>
@@ -5447,19 +5447,19 @@
         <v>449017</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>431996</v>
+        <v>432360</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>463713</v>
+        <v>464286</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8584037069685442</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8258638164477706</v>
+        <v>0.8265589999925638</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8864974682898632</v>
+        <v>0.8875940313580535</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>838</v>
@@ -5468,19 +5468,19 @@
         <v>893925</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>870746</v>
+        <v>870967</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>913575</v>
+        <v>914987</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8715612725770074</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8489622277295774</v>
+        <v>0.8491780122930409</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.890719860158777</v>
+        <v>0.8920970515409344</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>41106</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>29755</v>
+        <v>31234</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>53594</v>
+        <v>54878</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1290351441939455</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0934027076576375</v>
+        <v>0.09804459139556229</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1682360736556848</v>
+        <v>0.1722656461012737</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>44</v>
@@ -5593,19 +5593,19 @@
         <v>49860</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>38618</v>
+        <v>37123</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>67107</v>
+        <v>66881</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1482556823375702</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1148286564360688</v>
+        <v>0.1103847279799417</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1995396274378224</v>
+        <v>0.1988666310088632</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>89</v>
@@ -5614,19 +5614,19 @@
         <v>90966</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>74916</v>
+        <v>75263</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>108388</v>
+        <v>111621</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1389058063440289</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1143980512440036</v>
+        <v>0.1149272823175229</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1655098486348663</v>
+        <v>0.1704465458256901</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>277459</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>264971</v>
+        <v>263687</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>288810</v>
+        <v>287331</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8709648558060545</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8317639263443151</v>
+        <v>0.8277343538987263</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9065972923423624</v>
+        <v>0.9019554086044377</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>288</v>
@@ -5664,19 +5664,19 @@
         <v>286449</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>269202</v>
+        <v>269428</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>297691</v>
+        <v>299186</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8517443176624298</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8004603725621779</v>
+        <v>0.801133368991137</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8851713435639312</v>
+        <v>0.8896152720200584</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>578</v>
@@ -5685,19 +5685,19 @@
         <v>563908</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>546486</v>
+        <v>543253</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>579958</v>
+        <v>579611</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8610941936559711</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8344901513651339</v>
+        <v>0.82955345417431</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8856019487559965</v>
+        <v>0.8850727176824772</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>46467</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>35201</v>
+        <v>35168</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>59637</v>
+        <v>60626</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1255997365574547</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09514610332593017</v>
+        <v>0.09505917151156568</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1611966372775808</v>
+        <v>0.1638696149068815</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>50</v>
@@ -5810,19 +5810,19 @@
         <v>56333</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>41564</v>
+        <v>43193</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>71763</v>
+        <v>71720</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1454576991834743</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1073216399320704</v>
+        <v>0.1115274383603364</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1852984542928674</v>
+        <v>0.1851876745439739</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>98</v>
@@ -5831,19 +5831,19 @@
         <v>102801</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>85824</v>
+        <v>84258</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>123888</v>
+        <v>123533</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1357558036879884</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1133368386255488</v>
+        <v>0.1112687533996382</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1636029449818352</v>
+        <v>0.1631348892599894</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>323497</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>310327</v>
+        <v>309338</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>334763</v>
+        <v>334796</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8744002634425453</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8388033627224194</v>
+        <v>0.8361303850931189</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9048538966740701</v>
+        <v>0.9049408284884345</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>308</v>
@@ -5881,19 +5881,19 @@
         <v>330950</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>315520</v>
+        <v>315563</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>345719</v>
+        <v>344090</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8545423008165257</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8147015457071322</v>
+        <v>0.8148123254560257</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8926783600679296</v>
+        <v>0.8884725616396635</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>614</v>
@@ -5902,19 +5902,19 @@
         <v>654446</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>633359</v>
+        <v>633714</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>671423</v>
+        <v>672989</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8642441963120117</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8363970550181649</v>
+        <v>0.8368651107400107</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8866631613744513</v>
+        <v>0.8887312466003618</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>27395</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>18184</v>
+        <v>19872</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>38530</v>
+        <v>38702</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1296989811392229</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08609063056580529</v>
+        <v>0.09408072239273642</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1824156372563673</v>
+        <v>0.1832292491321483</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>32</v>
@@ -6027,19 +6027,19 @@
         <v>32234</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>22991</v>
+        <v>22822</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>43910</v>
+        <v>44399</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1474631254963063</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1051787013108078</v>
+        <v>0.1044068864822901</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.200882649960173</v>
+        <v>0.2031164991848755</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>60</v>
@@ -6048,19 +6048,19 @@
         <v>59629</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>47692</v>
+        <v>46155</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>76479</v>
+        <v>75531</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1387332732843494</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1109612101792895</v>
+        <v>0.1073848939450411</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1779372620320035</v>
+        <v>0.1757311307349416</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>183826</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>172691</v>
+        <v>172519</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>193037</v>
+        <v>191349</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.870301018860777</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8175843627436328</v>
+        <v>0.8167707508678518</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9139093694341949</v>
+        <v>0.905919277607264</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>191</v>
@@ -6098,19 +6098,19 @@
         <v>186353</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>174677</v>
+        <v>174188</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>195596</v>
+        <v>195765</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8525368745036938</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.799117350039827</v>
+        <v>0.7968835008151244</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8948212986891922</v>
+        <v>0.8955931135177099</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>375</v>
@@ -6119,19 +6119,19 @@
         <v>370179</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>353329</v>
+        <v>354277</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>382116</v>
+        <v>383653</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8612667267156506</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8220627379679968</v>
+        <v>0.8242688692650582</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8890387898207105</v>
+        <v>0.8926151060549589</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>27356</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>19109</v>
+        <v>18041</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>38655</v>
+        <v>38104</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1039679199756679</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07262300356063581</v>
+        <v>0.06856488720271081</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1469083199954351</v>
+        <v>0.1448156622241402</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>27</v>
@@ -6244,19 +6244,19 @@
         <v>29397</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>20352</v>
+        <v>20050</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>40599</v>
+        <v>41178</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1076361129151684</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07451789229733478</v>
+        <v>0.07341262996115619</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1486520812781342</v>
+        <v>0.1507704108131724</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>55</v>
@@ -6265,19 +6265,19 @@
         <v>56753</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>43575</v>
+        <v>43434</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>72081</v>
+        <v>72663</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1058361921178616</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08126019704764187</v>
+        <v>0.08099708504070598</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1344200939012838</v>
+        <v>0.1355043961656083</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>235767</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>224468</v>
+        <v>225019</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>244014</v>
+        <v>245082</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8960320800243321</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8530916800045648</v>
+        <v>0.85518433777586</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9273769964393641</v>
+        <v>0.9314351127972892</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>236</v>
@@ -6315,19 +6315,19 @@
         <v>243718</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>232516</v>
+        <v>231937</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>252763</v>
+        <v>253065</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8923638870848316</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8513479187218658</v>
+        <v>0.8492295891868276</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9254821077026651</v>
+        <v>0.9265873700388437</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>467</v>
@@ -6336,19 +6336,19 @@
         <v>479485</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>464157</v>
+        <v>463575</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>492663</v>
+        <v>492804</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8941638078821383</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8655799060987162</v>
+        <v>0.8644956038343916</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9187398029523581</v>
+        <v>0.919002914959294</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>72062</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>56566</v>
+        <v>57114</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>89672</v>
+        <v>89921</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1097568602714837</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08615594442994932</v>
+        <v>0.08699074574271404</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1365783463140471</v>
+        <v>0.1369577603741221</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>63</v>
@@ -6461,19 +6461,19 @@
         <v>72567</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>56919</v>
+        <v>55617</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>90308</v>
+        <v>90450</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1049722974490215</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0823372252839981</v>
+        <v>0.0804538312540293</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1306361493355607</v>
+        <v>0.1308415404754493</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>127</v>
@@ -6482,19 +6482,19 @@
         <v>144628</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>123434</v>
+        <v>122867</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>169699</v>
+        <v>172864</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1073029264715759</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09157823364438518</v>
+        <v>0.09115788978173299</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1259032704536671</v>
+        <v>0.1282511060116429</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>584496</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>566886</v>
+        <v>566637</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>599992</v>
+        <v>599444</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8902431397285163</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8634216536859528</v>
+        <v>0.8630422396258779</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9138440555700506</v>
+        <v>0.9130092542572857</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>583</v>
@@ -6532,19 +6532,19 @@
         <v>618727</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>600986</v>
+        <v>600844</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>634375</v>
+        <v>635677</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8950277025509785</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8693638506644392</v>
+        <v>0.8691584595245505</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9176627747160019</v>
+        <v>0.9195461687459706</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1099</v>
@@ -6553,19 +6553,19 @@
         <v>1203224</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1178153</v>
+        <v>1174988</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1224418</v>
+        <v>1224985</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8926970735284241</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8740967295463331</v>
+        <v>0.8717488939883574</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9084217663556149</v>
+        <v>0.9088421102182671</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>79438</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>63794</v>
+        <v>64063</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>98527</v>
+        <v>97238</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1020294062768056</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08193555364514366</v>
+        <v>0.08228099333338453</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1265462739363021</v>
+        <v>0.1248913172312798</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>95</v>
@@ -6678,19 +6678,19 @@
         <v>115228</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>95178</v>
+        <v>96772</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>139674</v>
+        <v>141292</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1394733022373895</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1152048020237826</v>
+        <v>0.117133284294975</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1690631599864049</v>
+        <v>0.1710210115100497</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>172</v>
@@ -6699,19 +6699,19 @@
         <v>194667</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>168255</v>
+        <v>169004</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>223646</v>
+        <v>223687</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1213064969713644</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1048480639827799</v>
+        <v>0.1053148343522995</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.139364941426757</v>
+        <v>0.1393903692867959</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>699145</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>680056</v>
+        <v>681345</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>714789</v>
+        <v>714520</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8979705937231944</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8734537260636979</v>
+        <v>0.8751086827687201</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9180644463548564</v>
+        <v>0.9177190066666154</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>660</v>
@@ -6749,19 +6749,19 @@
         <v>710939</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>686493</v>
+        <v>684875</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>730989</v>
+        <v>729395</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8605266977626105</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8309368400135952</v>
+        <v>0.8289789884899504</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8847951979762175</v>
+        <v>0.8828667157050252</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1333</v>
@@ -6770,19 +6770,19 @@
         <v>1410083</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1381104</v>
+        <v>1381063</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1436495</v>
+        <v>1435746</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8786935030286356</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.860635058573243</v>
+        <v>0.8606096307132037</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.89515193601722</v>
+        <v>0.8946851656477005</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>388798</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>354014</v>
+        <v>352164</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>427114</v>
+        <v>429620</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1145427989490394</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1042952244932123</v>
+        <v>0.1037499509895467</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1258309598218785</v>
+        <v>0.1265692479158909</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>411</v>
@@ -6895,19 +6895,19 @@
         <v>469338</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>424902</v>
+        <v>425625</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>510501</v>
+        <v>513377</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1324113550473348</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1198751428609108</v>
+        <v>0.1200789074993194</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1440244981741692</v>
+        <v>0.144835958759313</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>792</v>
@@ -6916,19 +6916,19 @@
         <v>858136</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>804897</v>
+        <v>806113</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>914751</v>
+        <v>909245</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1236704585853208</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.115997860905444</v>
+        <v>0.1161731739916131</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1318295483419056</v>
+        <v>0.13103600363399</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>3005552</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2967236</v>
+        <v>2964730</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3040336</v>
+        <v>3042186</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8854572010509606</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8741690401781209</v>
+        <v>0.8734307520841088</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8957047755067875</v>
+        <v>0.8962500490104534</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2927</v>
@@ -6966,19 +6966,19 @@
         <v>3075204</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3034041</v>
+        <v>3031165</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3119640</v>
+        <v>3118917</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8675886449526653</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8559755018258307</v>
+        <v>0.8551640412406869</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8801248571390892</v>
+        <v>0.8799210925006806</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5777</v>
@@ -6987,19 +6987,19 @@
         <v>6080756</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6024141</v>
+        <v>6029647</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6133995</v>
+        <v>6132779</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8763295414146792</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8681704516580944</v>
+        <v>0.8689639963660094</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8840021390945559</v>
+        <v>0.8838268260083868</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>40150</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>29933</v>
+        <v>30658</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>50687</v>
+        <v>50371</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1259219226433227</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09387811850874671</v>
+        <v>0.0961543109784454</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1589716089538267</v>
+        <v>0.1579784103455587</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>91</v>
@@ -7356,19 +7356,19 @@
         <v>45881</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>37232</v>
+        <v>37860</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>55404</v>
+        <v>55534</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.1451661881556195</v>
+        <v>0.1451661881556194</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1178010713317487</v>
+        <v>0.1197874113707068</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.175294470994838</v>
+        <v>0.1757065349337549</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>143</v>
@@ -7377,19 +7377,19 @@
         <v>86031</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>71912</v>
+        <v>73684</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>99739</v>
+        <v>100777</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1355018536233568</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1132639929576395</v>
+        <v>0.1160547124794151</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1570930844425645</v>
+        <v>0.1587278034234365</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>278695</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>268158</v>
+        <v>268474</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>288912</v>
+        <v>288187</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8740780773566771</v>
+        <v>0.8740780773566772</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8410283910461732</v>
+        <v>0.8420215896544411</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9061218814912533</v>
+        <v>0.9038456890215545</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>447</v>
@@ -7427,19 +7427,19 @@
         <v>270180</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>260657</v>
+        <v>260527</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>278829</v>
+        <v>278201</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8548338118443805</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8247055290051619</v>
+        <v>0.8242934650662452</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8821989286682513</v>
+        <v>0.8802125886292935</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>726</v>
@@ -7448,19 +7448,19 @@
         <v>548875</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>535167</v>
+        <v>534129</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>562994</v>
+        <v>561222</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8644981463766432</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8429069155574354</v>
+        <v>0.8412721965765635</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8867360070423604</v>
+        <v>0.883945287520585</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>62592</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>48930</v>
+        <v>47737</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>79708</v>
+        <v>80102</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.118384325901897</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09254374792931688</v>
+        <v>0.0902876970914212</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1507563274335042</v>
+        <v>0.1515015617102829</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>111</v>
@@ -7573,19 +7573,19 @@
         <v>71077</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>60314</v>
+        <v>59442</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>86123</v>
+        <v>84107</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1305039618287899</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1107412516091793</v>
+        <v>0.109140400131411</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.158130151332706</v>
+        <v>0.1544284903014573</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>169</v>
@@ -7594,19 +7594,19 @@
         <v>133669</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>115345</v>
+        <v>115223</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>155301</v>
+        <v>154432</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.124534004136326</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1074621286011105</v>
+        <v>0.1073491018026567</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1446878822285229</v>
+        <v>0.1438776906998392</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>466126</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>449010</v>
+        <v>448616</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>479788</v>
+        <v>480981</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.881615674098103</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8492436725664958</v>
+        <v>0.8484984382897172</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9074562520706833</v>
+        <v>0.9097123029085789</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>603</v>
@@ -7644,19 +7644,19 @@
         <v>473558</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>458512</v>
+        <v>460528</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>484321</v>
+        <v>485193</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8694960381712101</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8418698486672941</v>
+        <v>0.8455715096985427</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8892587483908209</v>
+        <v>0.8908595998685891</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>925</v>
@@ -7665,19 +7665,19 @@
         <v>939684</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>918052</v>
+        <v>918921</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>958008</v>
+        <v>958130</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8754659958636739</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8553121177714769</v>
+        <v>0.856122309300161</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8925378713988896</v>
+        <v>0.8926508981973433</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>46247</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>35549</v>
+        <v>35979</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>57465</v>
+        <v>58959</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.1466159144329058</v>
+        <v>0.1466159144329059</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1126976823661306</v>
+        <v>0.1140629300222302</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1821788345564267</v>
+        <v>0.1869143009494542</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>110</v>
@@ -7790,19 +7790,19 @@
         <v>59550</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>49385</v>
+        <v>48775</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>71129</v>
+        <v>70047</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1670972332193158</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1385732419588588</v>
+        <v>0.136862077709812</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.199587871352172</v>
+        <v>0.1965517564994482</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>176</v>
@@ -7811,19 +7811,19 @@
         <v>105798</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>92998</v>
+        <v>92806</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>122508</v>
+        <v>121382</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1574807535041419</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1384273408394314</v>
+        <v>0.1381422290885453</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.182353664797911</v>
+        <v>0.1806778969904105</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>269186</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>257968</v>
+        <v>256474</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>279884</v>
+        <v>279454</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8533840855670941</v>
+        <v>0.8533840855670942</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8178211654435733</v>
+        <v>0.8130856990505458</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8873023176338694</v>
+        <v>0.8859370699777699</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>426</v>
@@ -7861,19 +7861,19 @@
         <v>296831</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>285252</v>
+        <v>286334</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>306996</v>
+        <v>307606</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8329027667806842</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8004121286478278</v>
+        <v>0.8034482435005517</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8614267580411411</v>
+        <v>0.8631379222901873</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>719</v>
@@ -7882,19 +7882,19 @@
         <v>566017</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>549307</v>
+        <v>550433</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>578817</v>
+        <v>579009</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8425192464958582</v>
+        <v>0.8425192464958583</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8176463352020891</v>
+        <v>0.8193221030095896</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8615726591605687</v>
+        <v>0.8618577709114545</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>58078</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>45266</v>
+        <v>43192</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>76519</v>
+        <v>74342</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1556453023421315</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1213089625088057</v>
+        <v>0.1157509087999525</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2050638800361747</v>
+        <v>0.1992321936266184</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>135</v>
@@ -8007,19 +8007,19 @@
         <v>67594</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>57907</v>
+        <v>56150</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>80634</v>
+        <v>79104</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1601890514505741</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1372336517247403</v>
+        <v>0.1330691729415633</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1910932944589264</v>
+        <v>0.1874677443335066</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>196</v>
@@ -8028,19 +8028,19 @@
         <v>125672</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>109105</v>
+        <v>106783</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>146449</v>
+        <v>146767</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1580566603759518</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1372210671375997</v>
+        <v>0.1343003468167112</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1841874967705078</v>
+        <v>0.1845882120956222</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>315067</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>296626</v>
+        <v>298803</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>327879</v>
+        <v>329953</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8443546976578686</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7949361199638255</v>
+        <v>0.8007678063733815</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8786910374911944</v>
+        <v>0.8842490912000475</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>464</v>
@@ -8078,19 +8078,19 @@
         <v>354367</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>341327</v>
+        <v>342857</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>364054</v>
+        <v>365811</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.839810948549426</v>
+        <v>0.8398109485494261</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8089067055410737</v>
+        <v>0.8125322556664933</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8627663482752599</v>
+        <v>0.8669308270584367</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>695</v>
@@ -8099,19 +8099,19 @@
         <v>669435</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>648658</v>
+        <v>648340</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>686002</v>
+        <v>688324</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8419433396240482</v>
+        <v>0.8419433396240481</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8158125032294922</v>
+        <v>0.8154117879043776</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8627789328624005</v>
+        <v>0.8656996531832887</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>39822</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>31773</v>
+        <v>32166</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>49385</v>
+        <v>49666</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1936275055525752</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1544913935935469</v>
+        <v>0.156402245278902</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2401248191996718</v>
+        <v>0.24149178470132</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>144</v>
@@ -8224,19 +8224,19 @@
         <v>56147</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>47249</v>
+        <v>48377</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>64356</v>
+        <v>64813</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2484866084342251</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2091084914567913</v>
+        <v>0.2141004182283657</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2848169755301823</v>
+        <v>0.2868389483280669</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>213</v>
@@ -8245,19 +8245,19 @@
         <v>95969</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>83612</v>
+        <v>84343</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>109632</v>
+        <v>109202</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2223465469622233</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.193717843611707</v>
+        <v>0.1954098290193096</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2540016553960797</v>
+        <v>0.2530049927885593</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>165843</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>156280</v>
+        <v>155999</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>173892</v>
+        <v>173499</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8063724944474248</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7598751808003283</v>
+        <v>0.7585082152986796</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8455086064064533</v>
+        <v>0.8435977547210981</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>345</v>
@@ -8295,19 +8295,19 @@
         <v>169809</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>161600</v>
+        <v>161143</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>178707</v>
+        <v>177579</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.751513391565775</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7151830244698177</v>
+        <v>0.7131610516719331</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7908915085432086</v>
+        <v>0.7858995817716343</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>555</v>
@@ -8316,19 +8316,19 @@
         <v>335651</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>321988</v>
+        <v>322418</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>348008</v>
+        <v>347277</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7776534530377768</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7459983446039201</v>
+        <v>0.7469950072114409</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8062821563882929</v>
+        <v>0.8045901709806904</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>55001</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>45418</v>
+        <v>44810</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>65536</v>
+        <v>65947</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2031761007572991</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.167775061164265</v>
+        <v>0.1655278907911452</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2420905809065256</v>
+        <v>0.2436104971507171</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>110</v>
@@ -8441,19 +8441,19 @@
         <v>46429</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>38249</v>
+        <v>39046</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>55356</v>
+        <v>55663</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1764712176418823</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1453772028011586</v>
+        <v>0.1484079705412601</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2104014908623227</v>
+        <v>0.2115677888037313</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>208</v>
@@ -8462,19 +8462,19 @@
         <v>101431</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>89574</v>
+        <v>88647</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>115865</v>
+        <v>115798</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1900139573138698</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1678032485241693</v>
+        <v>0.1660663223467725</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2170551186708216</v>
+        <v>0.2169291105447055</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>215706</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>205171</v>
+        <v>204760</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>225289</v>
+        <v>225897</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7968238992427008</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7579094190934745</v>
+        <v>0.7563895028492827</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8322249388357349</v>
+        <v>0.8344721092088548</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>349</v>
@@ -8512,19 +8512,19 @@
         <v>216670</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>207743</v>
+        <v>207436</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>224850</v>
+        <v>224053</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8235287823581178</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7895985091376773</v>
+        <v>0.7884322111962687</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8546227971988414</v>
+        <v>0.85159202945874</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>622</v>
@@ -8533,19 +8533,19 @@
         <v>432375</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>417941</v>
+        <v>418008</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>444232</v>
+        <v>445159</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8099860426861304</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7829448813291783</v>
+        <v>0.7830708894552945</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8321967514758307</v>
+        <v>0.8339336776532275</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>118694</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>98392</v>
+        <v>98923</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>139582</v>
+        <v>138839</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1663618597702226</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1379054006961261</v>
+        <v>0.1386500983589571</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.195638320859145</v>
+        <v>0.1945966368188485</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>203</v>
@@ -8658,19 +8658,19 @@
         <v>141583</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>124131</v>
+        <v>124122</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>159212</v>
+        <v>161731</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1843546306271173</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1616305940183287</v>
+        <v>0.1616186439541893</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2073088131005576</v>
+        <v>0.2105883548937759</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>320</v>
@@ -8679,19 +8679,19 @@
         <v>260277</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>230888</v>
+        <v>232743</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>289816</v>
+        <v>289947</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1756893445313166</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1558512071011607</v>
+        <v>0.1571036397740798</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1956278325839111</v>
+        <v>0.1957168715777395</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>594777</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>573889</v>
+        <v>574632</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>615079</v>
+        <v>614548</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8336381402297774</v>
+        <v>0.8336381402297773</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.804361679140855</v>
+        <v>0.8054033631811517</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8620945993038739</v>
+        <v>0.8613499016410429</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>751</v>
@@ -8729,19 +8729,19 @@
         <v>626411</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>608782</v>
+        <v>606263</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>643863</v>
+        <v>643872</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.8156453693728827</v>
+        <v>0.8156453693728826</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7926911868994424</v>
+        <v>0.7894116451062242</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8383694059816713</v>
+        <v>0.8383813560458107</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1227</v>
@@ -8750,19 +8750,19 @@
         <v>1221187</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1191648</v>
+        <v>1191517</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1250576</v>
+        <v>1248721</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8243106554686837</v>
+        <v>0.8243106554686833</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8043721674160889</v>
+        <v>0.8042831284222605</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8441487928988393</v>
+        <v>0.8428963602259201</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>86020</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>71581</v>
+        <v>72165</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>103531</v>
+        <v>104712</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1077852751052746</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08969265930359868</v>
+        <v>0.09042382757509837</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1297261965899871</v>
+        <v>0.1312064501066697</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>169</v>
@@ -8875,19 +8875,19 @@
         <v>111223</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>96117</v>
+        <v>94476</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>127443</v>
+        <v>127354</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1340039936728675</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1158038383535235</v>
+        <v>0.1138275361187429</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1535459787491565</v>
+        <v>0.1534396318518176</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>276</v>
@@ -8896,19 +8896,19 @@
         <v>197243</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>173912</v>
+        <v>175510</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>219083</v>
+        <v>221593</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1211516892235636</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1068210786226258</v>
+        <v>0.1078025210281357</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1345664146522006</v>
+        <v>0.136108181000593</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>712052</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>694541</v>
+        <v>693360</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>726491</v>
+        <v>725907</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.8922147248947253</v>
+        <v>0.8922147248947254</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8702738034100128</v>
+        <v>0.868793549893331</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9103073406964008</v>
+        <v>0.9095761724249023</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>891</v>
@@ -8946,19 +8946,19 @@
         <v>718773</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>702553</v>
+        <v>702642</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>733879</v>
+        <v>735520</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8659960063271326</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8464540212508433</v>
+        <v>0.8465603681481825</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8841961616464765</v>
+        <v>0.8861724638812571</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1546</v>
@@ -8967,19 +8967,19 @@
         <v>1430825</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1408985</v>
+        <v>1406475</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1454156</v>
+        <v>1452558</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8788483107764363</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8654335853477995</v>
+        <v>0.8638918189994069</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8931789213773741</v>
+        <v>0.8921974789718644</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>506606</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>469752</v>
+        <v>468947</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>547321</v>
+        <v>547029</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.1437564016181793</v>
+        <v>0.1437564016181794</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.133298603685528</v>
+        <v>0.1330701104470726</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1553100516324988</v>
+        <v>0.1552271811126218</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1073</v>
@@ -9092,19 +9092,19 @@
         <v>599485</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>564071</v>
+        <v>562497</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>631579</v>
+        <v>633626</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1608887035586158</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1513843271827037</v>
+        <v>0.1509620813084449</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1695020821135091</v>
+        <v>0.1700516201816058</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1701</v>
@@ -9113,19 +9113,19 @@
         <v>1106090</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1048512</v>
+        <v>1053313</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1158014</v>
+        <v>1160081</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1525612497852638</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1446196008605768</v>
+        <v>0.1452817143800274</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1597229421799662</v>
+        <v>0.160008040615473</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>3017451</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2976736</v>
+        <v>2977028</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3054305</v>
+        <v>3055110</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8562435983818207</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8446899483675013</v>
+        <v>0.8447728188873781</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.866701396314472</v>
+        <v>0.8669298895529272</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4276</v>
@@ -9163,19 +9163,19 @@
         <v>3126598</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3094504</v>
+        <v>3092457</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3162012</v>
+        <v>3163586</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8391112964413843</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8304979178864909</v>
+        <v>0.8299483798183944</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8486156728172961</v>
+        <v>0.8490379186915548</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7015</v>
@@ -9184,19 +9184,19 @@
         <v>6144050</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6092126</v>
+        <v>6090059</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6201628</v>
+        <v>6196827</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8474387502147362</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8402770578200335</v>
+        <v>0.8399919593845272</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8553803991394231</v>
+        <v>0.8547182856199728</v>
       </c>
     </row>
     <row r="30">
